--- a/stock/月營收創新高.xlsx
+++ b/stock/月營收創新高.xlsx
@@ -11,7 +11,12 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8月" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9月" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6月'!$B$1:$B$500</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'7月'!$B$1:$B$500</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'8月'!$B$1:$B$500</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'9月'!$B$1:$B$500</definedName>
+  </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -19,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <name val="新細明體"/>
       <family val="2"/>
@@ -51,6 +56,12 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <color rgb="00000000"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,12 +100,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -109,6 +121,27 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,7 +535,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>代號</t>
         </is>
@@ -599,7 +632,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="7" t="n">
         <v>1110</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -682,7 +715,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="7" t="n">
         <v>1229</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -765,10 +798,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="7" t="n">
         <v>1342</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>八貫</t>
         </is>
@@ -838,7 +871,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="7" t="n">
         <v>1515</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -916,7 +949,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="7" t="n">
         <v>1526</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -999,7 +1032,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="7" t="n">
         <v>1595</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -1082,7 +1115,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="7" t="n">
         <v>1609</v>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1165,7 +1198,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="7" t="n">
         <v>1784</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -1238,7 +1271,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="7" t="n">
         <v>1788</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1321,7 +1354,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="7" t="n">
         <v>1815</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -1404,7 +1437,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="7" t="n">
         <v>2010</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1487,7 +1520,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="7" t="n">
         <v>2012</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -1570,7 +1603,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="7" t="n">
         <v>2023</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1653,7 +1686,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="7" t="n">
         <v>2027</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
@@ -1731,10 +1764,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="7" t="n">
         <v>2062</v>
       </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>橋椿</t>
         </is>
@@ -1814,10 +1847,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="7" t="n">
         <v>2063</v>
       </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>世鎧</t>
         </is>
@@ -1892,10 +1925,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="7" t="n">
         <v>2221</v>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>大甲</t>
         </is>
@@ -1965,7 +1998,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="7" t="n">
         <v>2230</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -2048,10 +2081,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="7" t="n">
         <v>2241</v>
       </c>
-      <c r="B20" s="3" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>艾姆勒</t>
         </is>
@@ -2131,10 +2164,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="7" t="n">
         <v>2250</v>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>IKKA-KY</t>
         </is>
@@ -2184,10 +2217,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="7" t="n">
         <v>2303</v>
       </c>
-      <c r="B22" s="3" t="inlineStr">
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>聯電</t>
         </is>
@@ -2267,7 +2300,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="7" t="n">
         <v>2330</v>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -2350,7 +2383,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="7" t="n">
         <v>2338</v>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -2433,10 +2466,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="7" t="n">
         <v>2344</v>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B25" s="8" t="inlineStr">
         <is>
           <t>華邦電</t>
         </is>
@@ -2511,7 +2544,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="7" t="n">
         <v>2352</v>
       </c>
       <c r="B26" s="3" t="inlineStr">
@@ -2594,10 +2627,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="7" t="n">
         <v>2369</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>菱生</t>
         </is>
@@ -2677,10 +2710,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="7" t="n">
         <v>2375</v>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B28" s="8" t="inlineStr">
         <is>
           <t>凱美</t>
         </is>
@@ -2755,10 +2788,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="7" t="n">
         <v>2379</v>
       </c>
-      <c r="B29" s="3" t="inlineStr">
+      <c r="B29" s="8" t="inlineStr">
         <is>
           <t>瑞昱</t>
         </is>
@@ -2838,10 +2871,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="7" t="n">
         <v>2383</v>
       </c>
-      <c r="B30" s="3" t="inlineStr">
+      <c r="B30" s="8" t="inlineStr">
         <is>
           <t>台光電</t>
         </is>
@@ -2921,7 +2954,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="7" t="n">
         <v>2397</v>
       </c>
       <c r="B31" s="3" t="inlineStr">
@@ -3004,10 +3037,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="7" t="n">
         <v>2436</v>
       </c>
-      <c r="B32" s="3" t="inlineStr">
+      <c r="B32" s="8" t="inlineStr">
         <is>
           <t>偉詮電</t>
         </is>
@@ -3087,7 +3120,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="7" t="n">
         <v>2454</v>
       </c>
       <c r="B33" s="3" t="inlineStr">
@@ -3170,10 +3203,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="7" t="n">
         <v>2472</v>
       </c>
-      <c r="B34" s="3" t="inlineStr">
+      <c r="B34" s="8" t="inlineStr">
         <is>
           <t>立隆電</t>
         </is>
@@ -3248,10 +3281,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="7" t="n">
         <v>2603</v>
       </c>
-      <c r="B35" s="3" t="inlineStr">
+      <c r="B35" s="8" t="inlineStr">
         <is>
           <t>長榮</t>
         </is>
@@ -3326,10 +3359,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="7" t="n">
         <v>2609</v>
       </c>
-      <c r="B36" s="3" t="inlineStr">
+      <c r="B36" s="8" t="inlineStr">
         <is>
           <t>陽明</t>
         </is>
@@ -3404,10 +3437,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="7" t="n">
         <v>2615</v>
       </c>
-      <c r="B37" s="3" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>萬海</t>
         </is>
@@ -3482,10 +3515,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="7" t="n">
         <v>2636</v>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B38" s="8" t="inlineStr">
         <is>
           <t>台驊投控</t>
         </is>
@@ -3565,10 +3598,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="7" t="n">
         <v>2637</v>
       </c>
-      <c r="B39" s="3" t="inlineStr">
+      <c r="B39" s="8" t="inlineStr">
         <is>
           <t>慧洋-KY</t>
         </is>
@@ -3643,7 +3676,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="7" t="n">
         <v>2642</v>
       </c>
       <c r="B40" s="3" t="inlineStr">
@@ -3726,7 +3759,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="7" t="n">
         <v>2880</v>
       </c>
       <c r="B41" s="3" t="inlineStr">
@@ -3804,7 +3837,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="7" t="n">
         <v>2887</v>
       </c>
       <c r="B42" s="3" t="inlineStr">
@@ -3882,7 +3915,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="7" t="n">
         <v>2889</v>
       </c>
       <c r="B43" s="3" t="inlineStr">
@@ -3965,7 +3998,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="7" t="n">
         <v>3019</v>
       </c>
       <c r="B44" s="3" t="inlineStr">
@@ -4043,10 +4076,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="7" t="n">
         <v>3023</v>
       </c>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="B45" s="8" t="inlineStr">
         <is>
           <t>信邦</t>
         </is>
@@ -4126,10 +4159,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="7" t="n">
         <v>3034</v>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>聯詠</t>
         </is>
@@ -4209,10 +4242,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="7" t="n">
         <v>3037</v>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B47" s="8" t="inlineStr">
         <is>
           <t>欣興</t>
         </is>
@@ -4292,10 +4325,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="7" t="n">
         <v>3152</v>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B48" s="8" t="inlineStr">
         <is>
           <t>璟德</t>
         </is>
@@ -4375,7 +4408,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="7" t="n">
         <v>3162</v>
       </c>
       <c r="B49" s="3" t="inlineStr">
@@ -4453,7 +4486,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="7" t="n">
         <v>3167</v>
       </c>
       <c r="B50" s="3" t="inlineStr">
@@ -4536,10 +4569,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="7" t="n">
         <v>3169</v>
       </c>
-      <c r="B51" s="3" t="inlineStr">
+      <c r="B51" s="8" t="inlineStr">
         <is>
           <t>亞信</t>
         </is>
@@ -4614,7 +4647,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="7" t="n">
         <v>3178</v>
       </c>
       <c r="B52" s="3" t="inlineStr">
@@ -4682,7 +4715,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="7" t="n">
         <v>3189</v>
       </c>
       <c r="B53" s="3" t="inlineStr">
@@ -4765,10 +4798,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="7" t="n">
         <v>3219</v>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B54" s="8" t="inlineStr">
         <is>
           <t>倚強科</t>
         </is>
@@ -4843,10 +4876,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="7" t="n">
         <v>3221</v>
       </c>
-      <c r="B55" s="3" t="inlineStr">
+      <c r="B55" s="8" t="inlineStr">
         <is>
           <t>台嘉碩</t>
         </is>
@@ -4926,10 +4959,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="7" t="n">
         <v>3264</v>
       </c>
-      <c r="B56" s="3" t="inlineStr">
+      <c r="B56" s="8" t="inlineStr">
         <is>
           <t>欣銓</t>
         </is>
@@ -5009,7 +5042,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="7" t="n">
         <v>3323</v>
       </c>
       <c r="B57" s="3" t="inlineStr">
@@ -5092,10 +5125,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="7" t="n">
         <v>3357</v>
       </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="B58" s="8" t="inlineStr">
         <is>
           <t>臺慶科</t>
         </is>
@@ -5175,7 +5208,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="7" t="n">
         <v>3465</v>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -5258,7 +5291,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="7" t="n">
         <v>3484</v>
       </c>
       <c r="B60" s="3" t="inlineStr">
@@ -5336,10 +5369,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="7" t="n">
         <v>3511</v>
       </c>
-      <c r="B61" s="3" t="inlineStr">
+      <c r="B61" s="8" t="inlineStr">
         <is>
           <t>矽瑪</t>
         </is>
@@ -5409,7 +5442,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="7" t="n">
         <v>3546</v>
       </c>
       <c r="B62" s="3" t="inlineStr">
@@ -5492,7 +5525,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="7" t="n">
         <v>3548</v>
       </c>
       <c r="B63" s="3" t="inlineStr">
@@ -5570,10 +5603,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="7" t="n">
         <v>3588</v>
       </c>
-      <c r="B64" s="3" t="inlineStr">
+      <c r="B64" s="8" t="inlineStr">
         <is>
           <t>通嘉</t>
         </is>
@@ -5653,10 +5686,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="7" t="n">
         <v>3653</v>
       </c>
-      <c r="B65" s="3" t="inlineStr">
+      <c r="B65" s="8" t="inlineStr">
         <is>
           <t>健策</t>
         </is>
@@ -5736,7 +5769,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="7" t="n">
         <v>3665</v>
       </c>
       <c r="B66" s="3" t="inlineStr">
@@ -5809,10 +5842,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="7" t="n">
         <v>3675</v>
       </c>
-      <c r="B67" s="3" t="inlineStr">
+      <c r="B67" s="8" t="inlineStr">
         <is>
           <t>德微</t>
         </is>
@@ -5892,10 +5925,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="7" t="n">
         <v>3687</v>
       </c>
-      <c r="B68" s="3" t="inlineStr">
+      <c r="B68" s="8" t="inlineStr">
         <is>
           <t>歐買尬</t>
         </is>
@@ -5975,10 +6008,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="n">
+      <c r="A69" s="7" t="n">
         <v>3707</v>
       </c>
-      <c r="B69" s="3" t="inlineStr">
+      <c r="B69" s="8" t="inlineStr">
         <is>
           <t>漢磊</t>
         </is>
@@ -6058,10 +6091,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="n">
+      <c r="A70" s="7" t="n">
         <v>3714</v>
       </c>
-      <c r="B70" s="3" t="inlineStr">
+      <c r="B70" s="8" t="inlineStr">
         <is>
           <t>富采</t>
         </is>
@@ -6116,7 +6149,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="n">
+      <c r="A71" s="7" t="n">
         <v>4121</v>
       </c>
       <c r="B71" s="3" t="inlineStr">
@@ -6199,7 +6232,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="n">
+      <c r="A72" s="7" t="n">
         <v>4157</v>
       </c>
       <c r="B72" s="3" t="inlineStr">
@@ -6277,7 +6310,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="n">
+      <c r="A73" s="7" t="n">
         <v>4160</v>
       </c>
       <c r="B73" s="3" t="inlineStr">
@@ -6355,7 +6388,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="n">
+      <c r="A74" s="7" t="n">
         <v>4555</v>
       </c>
       <c r="B74" s="3" t="inlineStr">
@@ -6438,7 +6471,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="7" t="n">
         <v>4568</v>
       </c>
       <c r="B75" s="3" t="inlineStr">
@@ -6521,7 +6554,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="7" t="n">
         <v>4581</v>
       </c>
       <c r="B76" s="3" t="inlineStr">
@@ -6589,7 +6622,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="n">
+      <c r="A77" s="7" t="n">
         <v>4736</v>
       </c>
       <c r="B77" s="3" t="inlineStr">
@@ -6672,10 +6705,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="n">
+      <c r="A78" s="7" t="n">
         <v>4760</v>
       </c>
-      <c r="B78" s="3" t="inlineStr">
+      <c r="B78" s="8" t="inlineStr">
         <is>
           <t>勤凱</t>
         </is>
@@ -6755,10 +6788,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="n">
+      <c r="A79" s="7" t="n">
         <v>4953</v>
       </c>
-      <c r="B79" s="3" t="inlineStr">
+      <c r="B79" s="8" t="inlineStr">
         <is>
           <t>緯軟</t>
         </is>
@@ -6828,10 +6861,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="n">
+      <c r="A80" s="7" t="n">
         <v>4956</v>
       </c>
-      <c r="B80" s="3" t="inlineStr">
+      <c r="B80" s="8" t="inlineStr">
         <is>
           <t>光鋐</t>
         </is>
@@ -6906,10 +6939,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="n">
+      <c r="A81" s="7" t="n">
         <v>4961</v>
       </c>
-      <c r="B81" s="3" t="inlineStr">
+      <c r="B81" s="8" t="inlineStr">
         <is>
           <t>天鈺</t>
         </is>
@@ -6984,10 +7017,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="n">
+      <c r="A82" s="7" t="n">
         <v>5274</v>
       </c>
-      <c r="B82" s="3" t="inlineStr">
+      <c r="B82" s="8" t="inlineStr">
         <is>
           <t>信驊</t>
         </is>
@@ -7067,7 +7100,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="n">
+      <c r="A83" s="7" t="n">
         <v>5278</v>
       </c>
       <c r="B83" s="3" t="inlineStr">
@@ -7145,10 +7178,10 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="n">
+      <c r="A84" s="7" t="n">
         <v>5289</v>
       </c>
-      <c r="B84" s="3" t="inlineStr">
+      <c r="B84" s="8" t="inlineStr">
         <is>
           <t>宜鼎</t>
         </is>
@@ -7228,10 +7261,10 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="n">
+      <c r="A85" s="7" t="n">
         <v>5299</v>
       </c>
-      <c r="B85" s="3" t="inlineStr">
+      <c r="B85" s="8" t="inlineStr">
         <is>
           <t>杰力</t>
         </is>
@@ -7311,7 +7344,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="n">
+      <c r="A86" s="7" t="n">
         <v>5306</v>
       </c>
       <c r="B86" s="3" t="inlineStr">
@@ -7394,10 +7427,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="n">
+      <c r="A87" s="7" t="n">
         <v>5439</v>
       </c>
-      <c r="B87" s="3" t="inlineStr">
+      <c r="B87" s="8" t="inlineStr">
         <is>
           <t>高技</t>
         </is>
@@ -7477,10 +7510,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="n">
+      <c r="A88" s="7" t="n">
         <v>5609</v>
       </c>
-      <c r="B88" s="3" t="inlineStr">
+      <c r="B88" s="8" t="inlineStr">
         <is>
           <t>中菲行</t>
         </is>
@@ -7560,10 +7593,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="n">
+      <c r="A89" s="7" t="n">
         <v>5871</v>
       </c>
-      <c r="B89" s="3" t="inlineStr">
+      <c r="B89" s="8" t="inlineStr">
         <is>
           <t>中租-KY</t>
         </is>
@@ -7643,10 +7676,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="n">
+      <c r="A90" s="7" t="n">
         <v>6104</v>
       </c>
-      <c r="B90" s="3" t="inlineStr">
+      <c r="B90" s="8" t="inlineStr">
         <is>
           <t>創惟</t>
         </is>
@@ -7721,7 +7754,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="n">
+      <c r="A91" s="7" t="n">
         <v>6146</v>
       </c>
       <c r="B91" s="3" t="inlineStr">
@@ -7799,10 +7832,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="n">
+      <c r="A92" s="7" t="n">
         <v>6147</v>
       </c>
-      <c r="B92" s="3" t="inlineStr">
+      <c r="B92" s="8" t="inlineStr">
         <is>
           <t>頎邦</t>
         </is>
@@ -7882,10 +7915,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="n">
+      <c r="A93" s="7" t="n">
         <v>6165</v>
       </c>
-      <c r="B93" s="3" t="inlineStr">
+      <c r="B93" s="8" t="inlineStr">
         <is>
           <t>浪凡</t>
         </is>
@@ -7965,7 +7998,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="n">
+      <c r="A94" s="7" t="n">
         <v>6175</v>
       </c>
       <c r="B94" s="3" t="inlineStr">
@@ -8048,10 +8081,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="n">
+      <c r="A95" s="7" t="n">
         <v>6190</v>
       </c>
-      <c r="B95" s="3" t="inlineStr">
+      <c r="B95" s="8" t="inlineStr">
         <is>
           <t>萬泰科</t>
         </is>
@@ -8126,10 +8159,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="n">
+      <c r="A96" s="7" t="n">
         <v>6202</v>
       </c>
-      <c r="B96" s="3" t="inlineStr">
+      <c r="B96" s="8" t="inlineStr">
         <is>
           <t>盛群</t>
         </is>
@@ -8209,10 +8242,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="n">
+      <c r="A97" s="7" t="n">
         <v>6213</v>
       </c>
-      <c r="B97" s="3" t="inlineStr">
+      <c r="B97" s="8" t="inlineStr">
         <is>
           <t>聯茂</t>
         </is>
@@ -8292,10 +8325,10 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="n">
+      <c r="A98" s="7" t="n">
         <v>6224</v>
       </c>
-      <c r="B98" s="3" t="inlineStr">
+      <c r="B98" s="8" t="inlineStr">
         <is>
           <t>聚鼎</t>
         </is>
@@ -8375,10 +8408,10 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="n">
+      <c r="A99" s="7" t="n">
         <v>6237</v>
       </c>
-      <c r="B99" s="3" t="inlineStr">
+      <c r="B99" s="8" t="inlineStr">
         <is>
           <t>驊訊</t>
         </is>
@@ -8458,10 +8491,10 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="n">
+      <c r="A100" s="7" t="n">
         <v>6239</v>
       </c>
-      <c r="B100" s="3" t="inlineStr">
+      <c r="B100" s="8" t="inlineStr">
         <is>
           <t>力成</t>
         </is>
@@ -8541,10 +8574,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="n">
+      <c r="A101" s="7" t="n">
         <v>6271</v>
       </c>
-      <c r="B101" s="3" t="inlineStr">
+      <c r="B101" s="8" t="inlineStr">
         <is>
           <t>同欣電</t>
         </is>
@@ -8624,10 +8657,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="n">
+      <c r="A102" s="7" t="n">
         <v>6278</v>
       </c>
-      <c r="B102" s="3" t="inlineStr">
+      <c r="B102" s="8" t="inlineStr">
         <is>
           <t>台表科</t>
         </is>
@@ -8702,10 +8735,10 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="n">
+      <c r="A103" s="7" t="n">
         <v>6415</v>
       </c>
-      <c r="B103" s="3" t="inlineStr">
+      <c r="B103" s="8" t="inlineStr">
         <is>
           <t>矽力-KY</t>
         </is>
@@ -8780,10 +8813,10 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="n">
+      <c r="A104" s="7" t="n">
         <v>6438</v>
       </c>
-      <c r="B104" s="3" t="inlineStr">
+      <c r="B104" s="8" t="inlineStr">
         <is>
           <t>迅得</t>
         </is>
@@ -8863,10 +8896,10 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="n">
+      <c r="A105" s="7" t="n">
         <v>6485</v>
       </c>
-      <c r="B105" s="3" t="inlineStr">
+      <c r="B105" s="8" t="inlineStr">
         <is>
           <t>點序</t>
         </is>
@@ -8941,10 +8974,10 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="n">
+      <c r="A106" s="7" t="n">
         <v>6525</v>
       </c>
-      <c r="B106" s="3" t="inlineStr">
+      <c r="B106" s="8" t="inlineStr">
         <is>
           <t>捷敏-KY</t>
         </is>
@@ -9024,10 +9057,10 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="n">
+      <c r="A107" s="7" t="n">
         <v>6531</v>
       </c>
-      <c r="B107" s="3" t="inlineStr">
+      <c r="B107" s="8" t="inlineStr">
         <is>
           <t>愛普</t>
         </is>
@@ -9102,10 +9135,10 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="n">
+      <c r="A108" s="7" t="n">
         <v>6548</v>
       </c>
-      <c r="B108" s="3" t="inlineStr">
+      <c r="B108" s="8" t="inlineStr">
         <is>
           <t>長科*</t>
         </is>
@@ -9185,7 +9218,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="n">
+      <c r="A109" s="7" t="n">
         <v>6603</v>
       </c>
       <c r="B109" s="3" t="inlineStr">
@@ -9268,7 +9301,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="n">
+      <c r="A110" s="7" t="n">
         <v>6667</v>
       </c>
       <c r="B110" s="3" t="inlineStr">
@@ -9351,7 +9384,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="n">
+      <c r="A111" s="7" t="n">
         <v>6672</v>
       </c>
       <c r="B111" s="3" t="inlineStr">
@@ -9434,10 +9467,10 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="n">
+      <c r="A112" s="7" t="n">
         <v>6679</v>
       </c>
-      <c r="B112" s="3" t="inlineStr">
+      <c r="B112" s="8" t="inlineStr">
         <is>
           <t>鈺太</t>
         </is>
@@ -9517,10 +9550,10 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="n">
+      <c r="A113" s="7" t="n">
         <v>6706</v>
       </c>
-      <c r="B113" s="3" t="inlineStr">
+      <c r="B113" s="8" t="inlineStr">
         <is>
           <t>惠特</t>
         </is>
@@ -9595,10 +9628,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="n">
+      <c r="A114" s="7" t="n">
         <v>6712</v>
       </c>
-      <c r="B114" s="3" t="inlineStr">
+      <c r="B114" s="8" t="inlineStr">
         <is>
           <t>長聖</t>
         </is>
@@ -9678,7 +9711,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="n">
+      <c r="A115" s="7" t="n">
         <v>6716</v>
       </c>
       <c r="B115" s="3" t="inlineStr">
@@ -9761,7 +9794,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="n">
+      <c r="A116" s="7" t="n">
         <v>6727</v>
       </c>
       <c r="B116" s="3" t="inlineStr">
@@ -9844,7 +9877,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="n">
+      <c r="A117" s="7" t="n">
         <v>6741</v>
       </c>
       <c r="B117" s="3" t="inlineStr">
@@ -9902,10 +9935,10 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="n">
+      <c r="A118" s="7" t="n">
         <v>6756</v>
       </c>
-      <c r="B118" s="3" t="inlineStr">
+      <c r="B118" s="8" t="inlineStr">
         <is>
           <t>威鋒電子</t>
         </is>
@@ -9975,10 +10008,10 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="n">
+      <c r="A119" s="7" t="n">
         <v>6776</v>
       </c>
-      <c r="B119" s="3" t="inlineStr">
+      <c r="B119" s="8" t="inlineStr">
         <is>
           <t>展碁國際</t>
         </is>
@@ -10048,10 +10081,10 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="n">
+      <c r="A120" s="7" t="n">
         <v>8046</v>
       </c>
-      <c r="B120" s="3" t="inlineStr">
+      <c r="B120" s="8" t="inlineStr">
         <is>
           <t>南電</t>
         </is>
@@ -10126,10 +10159,10 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="n">
+      <c r="A121" s="7" t="n">
         <v>8070</v>
       </c>
-      <c r="B121" s="3" t="inlineStr">
+      <c r="B121" s="8" t="inlineStr">
         <is>
           <t>長華*</t>
         </is>
@@ -10209,10 +10242,10 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="n">
+      <c r="A122" s="7" t="n">
         <v>8081</v>
       </c>
-      <c r="B122" s="3" t="inlineStr">
+      <c r="B122" s="8" t="inlineStr">
         <is>
           <t>致新</t>
         </is>
@@ -10292,7 +10325,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="n">
+      <c r="A123" s="7" t="n">
         <v>8083</v>
       </c>
       <c r="B123" s="3" t="inlineStr">
@@ -10375,10 +10408,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="n">
+      <c r="A124" s="7" t="n">
         <v>8103</v>
       </c>
-      <c r="B124" s="3" t="inlineStr">
+      <c r="B124" s="8" t="inlineStr">
         <is>
           <t>瀚荃</t>
         </is>
@@ -10448,10 +10481,10 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="n">
+      <c r="A125" s="7" t="n">
         <v>8109</v>
       </c>
-      <c r="B125" s="3" t="inlineStr">
+      <c r="B125" s="8" t="inlineStr">
         <is>
           <t>博大</t>
         </is>
@@ -10526,7 +10559,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="n">
+      <c r="A126" s="7" t="n">
         <v>8147</v>
       </c>
       <c r="B126" s="3" t="inlineStr">
@@ -10604,10 +10637,10 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="n">
+      <c r="A127" s="7" t="n">
         <v>8150</v>
       </c>
-      <c r="B127" s="3" t="inlineStr">
+      <c r="B127" s="8" t="inlineStr">
         <is>
           <t>南茂</t>
         </is>
@@ -10687,7 +10720,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="n">
+      <c r="A128" s="7" t="n">
         <v>8163</v>
       </c>
       <c r="B128" s="3" t="inlineStr">
@@ -10765,7 +10798,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="n">
+      <c r="A129" s="7" t="n">
         <v>8210</v>
       </c>
       <c r="B129" s="3" t="inlineStr">
@@ -10848,10 +10881,10 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="n">
+      <c r="A130" s="7" t="n">
         <v>8213</v>
       </c>
-      <c r="B130" s="3" t="inlineStr">
+      <c r="B130" s="8" t="inlineStr">
         <is>
           <t>志超</t>
         </is>
@@ -10931,7 +10964,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="n">
+      <c r="A131" s="7" t="n">
         <v>8284</v>
       </c>
       <c r="B131" s="3" t="inlineStr">
@@ -11014,10 +11047,10 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="n">
+      <c r="A132" s="7" t="n">
         <v>8358</v>
       </c>
-      <c r="B132" s="3" t="inlineStr">
+      <c r="B132" s="8" t="inlineStr">
         <is>
           <t>金居</t>
         </is>
@@ -11097,10 +11130,10 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="n">
+      <c r="A133" s="7" t="n">
         <v>8367</v>
       </c>
-      <c r="B133" s="3" t="inlineStr">
+      <c r="B133" s="8" t="inlineStr">
         <is>
           <t>建新國際</t>
         </is>
@@ -11180,10 +11213,10 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="n">
+      <c r="A134" s="7" t="n">
         <v>8415</v>
       </c>
-      <c r="B134" s="3" t="inlineStr">
+      <c r="B134" s="8" t="inlineStr">
         <is>
           <t>大國鋼</t>
         </is>
@@ -11253,7 +11286,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="n">
+      <c r="A135" s="7" t="n">
         <v>8444</v>
       </c>
       <c r="B135" s="3" t="inlineStr">
@@ -11336,7 +11369,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="n">
+      <c r="A136" s="7" t="n">
         <v>8931</v>
       </c>
       <c r="B136" s="3" t="inlineStr">
@@ -11419,6 +11452,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B500">
+    <sortState ref="B1:B500">
+      <sortCondition descending="0" ref="B1:B500"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -11459,7 +11497,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>代號</t>
         </is>
@@ -11556,7 +11594,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="10" t="n">
         <v>1210</v>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -11635,7 +11673,7 @@
       <c r="S2" s="2" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="10" t="n">
         <v>1215</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -11714,7 +11752,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="10" t="n">
         <v>1240</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -11797,7 +11835,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="10" t="n">
         <v>1256</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -11876,7 +11914,7 @@
       <c r="S5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="10" t="n">
         <v>1303</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -11959,7 +11997,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="10" t="n">
         <v>1305</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -12042,7 +12080,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="10" t="n">
         <v>1308</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -12121,10 +12159,10 @@
       <c r="S8" s="2" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="10" t="n">
         <v>1342</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="11" t="inlineStr">
         <is>
           <t>八貫</t>
         </is>
@@ -12204,7 +12242,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="10" t="n">
         <v>1541</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -12283,7 +12321,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="10" t="n">
         <v>1593</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -12362,10 +12400,10 @@
       <c r="S11" s="2" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="10" t="n">
         <v>1773</v>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" s="11" t="inlineStr">
         <is>
           <t>勝一</t>
         </is>
@@ -12441,7 +12479,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="10" t="n">
         <v>1802</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -12520,7 +12558,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="10" t="n">
         <v>2002</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -12599,7 +12637,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="10" t="n">
         <v>2059</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -12682,10 +12720,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="10" t="n">
         <v>2062</v>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B16" s="11" t="inlineStr">
         <is>
           <t>橋椿</t>
         </is>
@@ -12765,10 +12803,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="10" t="n">
         <v>2063</v>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B17" s="11" t="inlineStr">
         <is>
           <t>世鎧</t>
         </is>
@@ -12844,7 +12882,7 @@
       <c r="S17" s="2" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="10" t="n">
         <v>2069</v>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -12923,10 +12961,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="10" t="n">
         <v>2221</v>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" s="11" t="inlineStr">
         <is>
           <t>大甲</t>
         </is>
@@ -13002,10 +13040,10 @@
       <c r="S19" s="2" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="10" t="n">
         <v>2241</v>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" s="11" t="inlineStr">
         <is>
           <t>艾姆勒</t>
         </is>
@@ -13085,10 +13123,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="10" t="n">
         <v>2250</v>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" s="11" t="inlineStr">
         <is>
           <t>IKKA-KY</t>
         </is>
@@ -13148,10 +13186,10 @@
       <c r="S21" s="2" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="10" t="n">
         <v>2303</v>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" s="11" t="inlineStr">
         <is>
           <t>聯電</t>
         </is>
@@ -13231,10 +13269,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="10" t="n">
         <v>2344</v>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" s="11" t="inlineStr">
         <is>
           <t>華邦電</t>
         </is>
@@ -13314,7 +13352,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="10" t="n">
         <v>2351</v>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -13397,7 +13435,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="10" t="n">
         <v>2368</v>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -13476,10 +13514,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="10" t="n">
         <v>2369</v>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" s="11" t="inlineStr">
         <is>
           <t>菱生</t>
         </is>
@@ -13559,10 +13597,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="10" t="n">
         <v>2375</v>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" s="11" t="inlineStr">
         <is>
           <t>凱美</t>
         </is>
@@ -13638,10 +13676,10 @@
       <c r="S27" s="2" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="10" t="n">
         <v>2379</v>
       </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="B28" s="11" t="inlineStr">
         <is>
           <t>瑞昱</t>
         </is>
@@ -13721,10 +13759,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="10" t="n">
         <v>2383</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" s="11" t="inlineStr">
         <is>
           <t>台光電</t>
         </is>
@@ -13804,7 +13842,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="10" t="n">
         <v>2414</v>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -13887,10 +13925,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="10" t="n">
         <v>2436</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" s="11" t="inlineStr">
         <is>
           <t>偉詮電</t>
         </is>
@@ -13970,7 +14008,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="10" t="n">
         <v>2441</v>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -14049,7 +14087,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="10" t="n">
         <v>2449</v>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -14128,10 +14166,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="10" t="n">
         <v>2472</v>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" s="11" t="inlineStr">
         <is>
           <t>立隆電</t>
         </is>
@@ -14211,7 +14249,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="10" t="n">
         <v>2476</v>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -14294,7 +14332,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="10" t="n">
         <v>2483</v>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -14377,10 +14415,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="10" t="n">
         <v>2603</v>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B37" s="11" t="inlineStr">
         <is>
           <t>長榮</t>
         </is>
@@ -14456,10 +14494,10 @@
       <c r="S37" s="2" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="10" t="n">
         <v>2609</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" s="11" t="inlineStr">
         <is>
           <t>陽明</t>
         </is>
@@ -14535,10 +14573,10 @@
       <c r="S38" s="2" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="10" t="n">
         <v>2615</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" s="11" t="inlineStr">
         <is>
           <t>萬海</t>
         </is>
@@ -14614,10 +14652,10 @@
       <c r="S39" s="2" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="10" t="n">
         <v>2636</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" s="11" t="inlineStr">
         <is>
           <t>台驊投控</t>
         </is>
@@ -14697,10 +14735,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="10" t="n">
         <v>2637</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" s="11" t="inlineStr">
         <is>
           <t>慧洋-KY</t>
         </is>
@@ -14776,7 +14814,7 @@
       <c r="S41" s="2" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="10" t="n">
         <v>2643</v>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -14855,7 +14893,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="10" t="n">
         <v>2884</v>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -14934,7 +14972,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="10" t="n">
         <v>3006</v>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -15013,7 +15051,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="10" t="n">
         <v>3010</v>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -15096,7 +15134,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="10" t="n">
         <v>3014</v>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -15175,10 +15213,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="10" t="n">
         <v>3023</v>
       </c>
-      <c r="B47" s="2" t="inlineStr">
+      <c r="B47" s="11" t="inlineStr">
         <is>
           <t>信邦</t>
         </is>
@@ -15258,10 +15296,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="10" t="n">
         <v>3034</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" s="11" t="inlineStr">
         <is>
           <t>聯詠</t>
         </is>
@@ -15341,10 +15379,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="10" t="n">
         <v>3037</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" s="11" t="inlineStr">
         <is>
           <t>欣興</t>
         </is>
@@ -15424,7 +15462,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="10" t="n">
         <v>3093</v>
       </c>
       <c r="B50" s="2" t="inlineStr">
@@ -15503,7 +15541,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="10" t="n">
         <v>3131</v>
       </c>
       <c r="B51" s="2" t="inlineStr">
@@ -15586,7 +15624,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="10" t="n">
         <v>3141</v>
       </c>
       <c r="B52" s="2" t="inlineStr">
@@ -15669,7 +15707,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="10" t="n">
         <v>3147</v>
       </c>
       <c r="B53" s="2" t="inlineStr">
@@ -15748,10 +15786,10 @@
       <c r="S53" s="2" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="10" t="n">
         <v>3152</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" s="11" t="inlineStr">
         <is>
           <t>璟德</t>
         </is>
@@ -15831,10 +15869,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="10" t="n">
         <v>3169</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" s="11" t="inlineStr">
         <is>
           <t>亞信</t>
         </is>
@@ -15910,10 +15948,10 @@
       <c r="S55" s="2" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="10" t="n">
         <v>3219</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" s="11" t="inlineStr">
         <is>
           <t>倚強科</t>
         </is>
@@ -15993,10 +16031,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="10" t="n">
         <v>3221</v>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" s="11" t="inlineStr">
         <is>
           <t>台嘉碩</t>
         </is>
@@ -16076,7 +16114,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="10" t="n">
         <v>3257</v>
       </c>
       <c r="B58" s="2" t="inlineStr">
@@ -16159,10 +16197,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="10" t="n">
         <v>3264</v>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B59" s="11" t="inlineStr">
         <is>
           <t>欣銓</t>
         </is>
@@ -16242,10 +16280,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="10" t="n">
         <v>3357</v>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" s="11" t="inlineStr">
         <is>
           <t>臺慶科</t>
         </is>
@@ -16325,7 +16363,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="10" t="n">
         <v>3363</v>
       </c>
       <c r="B61" s="2" t="inlineStr">
@@ -16400,10 +16438,10 @@
       <c r="S61" s="2" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="10" t="n">
         <v>3511</v>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" s="11" t="inlineStr">
         <is>
           <t>矽瑪</t>
         </is>
@@ -16479,7 +16517,7 @@
       <c r="S62" s="2" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="10" t="n">
         <v>3527</v>
       </c>
       <c r="B63" s="2" t="inlineStr">
@@ -16562,7 +16600,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="10" t="n">
         <v>3545</v>
       </c>
       <c r="B64" s="2" t="inlineStr">
@@ -16641,10 +16679,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="10" t="n">
         <v>3588</v>
       </c>
-      <c r="B65" s="2" t="inlineStr">
+      <c r="B65" s="11" t="inlineStr">
         <is>
           <t>通嘉</t>
         </is>
@@ -16724,10 +16762,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="10" t="n">
         <v>3653</v>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" s="11" t="inlineStr">
         <is>
           <t>健策</t>
         </is>
@@ -16807,10 +16845,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="10" t="n">
         <v>3675</v>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B67" s="11" t="inlineStr">
         <is>
           <t>德微</t>
         </is>
@@ -16890,7 +16928,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="10" t="n">
         <v>3684</v>
       </c>
       <c r="B68" s="2" t="inlineStr">
@@ -16973,10 +17011,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="10" t="n">
         <v>3687</v>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B69" s="11" t="inlineStr">
         <is>
           <t>歐買尬</t>
         </is>
@@ -17056,7 +17094,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="10" t="n">
         <v>3689</v>
       </c>
       <c r="B70" s="2" t="inlineStr">
@@ -17139,10 +17177,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="10" t="n">
         <v>3707</v>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B71" s="11" t="inlineStr">
         <is>
           <t>漢磊</t>
         </is>
@@ -17222,10 +17260,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="10" t="n">
         <v>3714</v>
       </c>
-      <c r="B72" s="2" t="inlineStr">
+      <c r="B72" s="11" t="inlineStr">
         <is>
           <t>富采</t>
         </is>
@@ -17285,7 +17323,7 @@
       <c r="S72" s="2" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="10" t="n">
         <v>4133</v>
       </c>
       <c r="B73" s="2" t="inlineStr">
@@ -17364,7 +17402,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="10" t="n">
         <v>4161</v>
       </c>
       <c r="B74" s="2" t="inlineStr">
@@ -17443,7 +17481,7 @@
       <c r="S74" s="2" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="10" t="n">
         <v>4439</v>
       </c>
       <c r="B75" s="2" t="inlineStr">
@@ -17510,7 +17548,7 @@
       <c r="S75" s="2" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="10" t="n">
         <v>4561</v>
       </c>
       <c r="B76" s="2" t="inlineStr">
@@ -17593,7 +17631,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="10" t="n">
         <v>4571</v>
       </c>
       <c r="B77" s="2" t="inlineStr">
@@ -17676,7 +17714,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="10" t="n">
         <v>4721</v>
       </c>
       <c r="B78" s="2" t="inlineStr">
@@ -17759,7 +17797,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="10" t="n">
         <v>4755</v>
       </c>
       <c r="B79" s="2" t="inlineStr">
@@ -17842,10 +17880,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="10" t="n">
         <v>4760</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" s="11" t="inlineStr">
         <is>
           <t>勤凱</t>
         </is>
@@ -17925,7 +17963,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="10" t="n">
         <v>4927</v>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -18008,10 +18046,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="10" t="n">
         <v>4953</v>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B82" s="11" t="inlineStr">
         <is>
           <t>緯軟</t>
         </is>
@@ -18087,10 +18125,10 @@
       <c r="S82" s="2" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="10" t="n">
         <v>4956</v>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" s="11" t="inlineStr">
         <is>
           <t>光鋐</t>
         </is>
@@ -18166,10 +18204,10 @@
       <c r="S83" s="2" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="10" t="n">
         <v>4961</v>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" s="11" t="inlineStr">
         <is>
           <t>天鈺</t>
         </is>
@@ -18249,7 +18287,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="10" t="n">
         <v>4966</v>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -18332,10 +18370,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="10" t="n">
         <v>4974</v>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B86" s="11" t="inlineStr">
         <is>
           <t>亞泰</t>
         </is>
@@ -18415,7 +18453,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="10" t="n">
         <v>5210</v>
       </c>
       <c r="B87" s="2" t="inlineStr">
@@ -18494,10 +18532,10 @@
       <c r="S87" s="2" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="10" t="n">
         <v>5274</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" s="11" t="inlineStr">
         <is>
           <t>信驊</t>
         </is>
@@ -18577,7 +18615,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="10" t="n">
         <v>5285</v>
       </c>
       <c r="B89" s="2" t="inlineStr">
@@ -18660,10 +18698,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="10" t="n">
         <v>5289</v>
       </c>
-      <c r="B90" s="2" t="inlineStr">
+      <c r="B90" s="11" t="inlineStr">
         <is>
           <t>宜鼎</t>
         </is>
@@ -18743,10 +18781,10 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="10" t="n">
         <v>5299</v>
       </c>
-      <c r="B91" s="2" t="inlineStr">
+      <c r="B91" s="11" t="inlineStr">
         <is>
           <t>杰力</t>
         </is>
@@ -18826,7 +18864,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="10" t="n">
         <v>5347</v>
       </c>
       <c r="B92" s="2" t="inlineStr">
@@ -18909,10 +18947,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="10" t="n">
         <v>5439</v>
       </c>
-      <c r="B93" s="2" t="inlineStr">
+      <c r="B93" s="11" t="inlineStr">
         <is>
           <t>高技</t>
         </is>
@@ -18992,7 +19030,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="10" t="n">
         <v>5469</v>
       </c>
       <c r="B94" s="2" t="inlineStr">
@@ -19071,7 +19109,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="10" t="n">
         <v>5538</v>
       </c>
       <c r="B95" s="2" t="inlineStr">
@@ -19150,7 +19188,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="10" t="n">
         <v>5608</v>
       </c>
       <c r="B96" s="2" t="inlineStr">
@@ -19229,10 +19267,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="10" t="n">
         <v>5609</v>
       </c>
-      <c r="B97" s="2" t="inlineStr">
+      <c r="B97" s="11" t="inlineStr">
         <is>
           <t>中菲行</t>
         </is>
@@ -19312,7 +19350,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="10" t="n">
         <v>5820</v>
       </c>
       <c r="B98" s="2" t="inlineStr">
@@ -19395,10 +19433,10 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="10" t="n">
         <v>5871</v>
       </c>
-      <c r="B99" s="2" t="inlineStr">
+      <c r="B99" s="11" t="inlineStr">
         <is>
           <t>中租-KY</t>
         </is>
@@ -19478,7 +19516,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="10" t="n">
         <v>6021</v>
       </c>
       <c r="B100" s="2" t="inlineStr">
@@ -19561,10 +19599,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="10" t="n">
         <v>6104</v>
       </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="B101" s="11" t="inlineStr">
         <is>
           <t>創惟</t>
         </is>
@@ -19644,7 +19682,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="10" t="n">
         <v>6108</v>
       </c>
       <c r="B102" s="2" t="inlineStr">
@@ -19723,10 +19761,10 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="10" t="n">
         <v>6147</v>
       </c>
-      <c r="B103" s="2" t="inlineStr">
+      <c r="B103" s="11" t="inlineStr">
         <is>
           <t>頎邦</t>
         </is>
@@ -19806,10 +19844,10 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="10" t="n">
         <v>6165</v>
       </c>
-      <c r="B104" s="2" t="inlineStr">
+      <c r="B104" s="11" t="inlineStr">
         <is>
           <t>浪凡</t>
         </is>
@@ -19889,10 +19927,10 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="10" t="n">
         <v>6190</v>
       </c>
-      <c r="B105" s="2" t="inlineStr">
+      <c r="B105" s="11" t="inlineStr">
         <is>
           <t>萬泰科</t>
         </is>
@@ -19968,10 +20006,10 @@
       <c r="S105" s="2" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="10" t="n">
         <v>6202</v>
       </c>
-      <c r="B106" s="2" t="inlineStr">
+      <c r="B106" s="11" t="inlineStr">
         <is>
           <t>盛群</t>
         </is>
@@ -20051,10 +20089,10 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="10" t="n">
         <v>6213</v>
       </c>
-      <c r="B107" s="2" t="inlineStr">
+      <c r="B107" s="11" t="inlineStr">
         <is>
           <t>聯茂</t>
         </is>
@@ -20134,10 +20172,10 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="10" t="n">
         <v>6217</v>
       </c>
-      <c r="B108" s="2" t="inlineStr">
+      <c r="B108" s="11" t="inlineStr">
         <is>
           <t>中探針</t>
         </is>
@@ -20217,10 +20255,10 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="10" t="n">
         <v>6224</v>
       </c>
-      <c r="B109" s="2" t="inlineStr">
+      <c r="B109" s="11" t="inlineStr">
         <is>
           <t>聚鼎</t>
         </is>
@@ -20300,7 +20338,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="10" t="n">
         <v>6229</v>
       </c>
       <c r="B110" s="2" t="inlineStr">
@@ -20383,10 +20421,10 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="10" t="n">
         <v>6237</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" s="11" t="inlineStr">
         <is>
           <t>驊訊</t>
         </is>
@@ -20466,10 +20504,10 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="10" t="n">
         <v>6239</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" s="11" t="inlineStr">
         <is>
           <t>力成</t>
         </is>
@@ -20549,7 +20587,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="10" t="n">
         <v>6257</v>
       </c>
       <c r="B113" s="2" t="inlineStr">
@@ -20632,10 +20670,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="10" t="n">
         <v>6271</v>
       </c>
-      <c r="B114" s="2" t="inlineStr">
+      <c r="B114" s="11" t="inlineStr">
         <is>
           <t>同欣電</t>
         </is>
@@ -20715,10 +20753,10 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="10" t="n">
         <v>6274</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" s="11" t="inlineStr">
         <is>
           <t>台燿</t>
         </is>
@@ -20798,10 +20836,10 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="10" t="n">
         <v>6278</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" s="11" t="inlineStr">
         <is>
           <t>台表科</t>
         </is>
@@ -20881,7 +20919,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="10" t="n">
         <v>6287</v>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -20960,7 +20998,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="10" t="n">
         <v>6409</v>
       </c>
       <c r="B118" s="2" t="inlineStr">
@@ -21043,10 +21081,10 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="10" t="n">
         <v>6415</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" s="11" t="inlineStr">
         <is>
           <t>矽力-KY</t>
         </is>
@@ -21126,10 +21164,10 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="10" t="n">
         <v>6438</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" s="11" t="inlineStr">
         <is>
           <t>迅得</t>
         </is>
@@ -21209,10 +21247,10 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="10" t="n">
         <v>6485</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" s="11" t="inlineStr">
         <is>
           <t>點序</t>
         </is>
@@ -21288,10 +21326,10 @@
       <c r="S121" s="2" t="n"/>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="10" t="n">
         <v>6525</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" s="11" t="inlineStr">
         <is>
           <t>捷敏-KY</t>
         </is>
@@ -21371,10 +21409,10 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="10" t="n">
         <v>6531</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" s="11" t="inlineStr">
         <is>
           <t>愛普</t>
         </is>
@@ -21454,10 +21492,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="10" t="n">
         <v>6548</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" s="11" t="inlineStr">
         <is>
           <t>長科*</t>
         </is>
@@ -21537,7 +21575,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="10" t="n">
         <v>6556</v>
       </c>
       <c r="B125" s="2" t="inlineStr">
@@ -21616,7 +21654,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="10" t="n">
         <v>6560</v>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -21695,7 +21733,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="10" t="n">
         <v>6561</v>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -21774,7 +21812,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="10" t="n">
         <v>6570</v>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -21853,7 +21891,7 @@
       <c r="S128" s="2" t="n"/>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="10" t="n">
         <v>6589</v>
       </c>
       <c r="B129" s="2" t="inlineStr">
@@ -21932,7 +21970,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="10" t="n">
         <v>6651</v>
       </c>
       <c r="B130" s="2" t="inlineStr">
@@ -22015,10 +22053,10 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="10" t="n">
         <v>6679</v>
       </c>
-      <c r="B131" s="2" t="inlineStr">
+      <c r="B131" s="11" t="inlineStr">
         <is>
           <t>鈺太</t>
         </is>
@@ -22098,10 +22136,10 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="10" t="n">
         <v>6706</v>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B132" s="11" t="inlineStr">
         <is>
           <t>惠特</t>
         </is>
@@ -22177,10 +22215,10 @@
       <c r="S132" s="2" t="n"/>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="10" t="n">
         <v>6712</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" s="11" t="inlineStr">
         <is>
           <t>長聖</t>
         </is>
@@ -22260,7 +22298,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="10" t="n">
         <v>6732</v>
       </c>
       <c r="B134" s="2" t="inlineStr">
@@ -22339,10 +22377,10 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="10" t="n">
         <v>6756</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" s="11" t="inlineStr">
         <is>
           <t>威鋒電子</t>
         </is>
@@ -22414,10 +22452,10 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="10" t="n">
         <v>6776</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" s="11" t="inlineStr">
         <is>
           <t>展碁國際</t>
         </is>
@@ -22489,7 +22527,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="10" t="n">
         <v>8016</v>
       </c>
       <c r="B137" s="2" t="inlineStr">
@@ -22564,7 +22602,7 @@
       <c r="S137" s="2" t="n"/>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="10" t="n">
         <v>8021</v>
       </c>
       <c r="B138" s="2" t="inlineStr">
@@ -22647,7 +22685,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="10" t="n">
         <v>8042</v>
       </c>
       <c r="B139" s="2" t="inlineStr">
@@ -22730,10 +22768,10 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="10" t="n">
         <v>8046</v>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B140" s="11" t="inlineStr">
         <is>
           <t>南電</t>
         </is>
@@ -22813,10 +22851,10 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="10" t="n">
         <v>8070</v>
       </c>
-      <c r="B141" s="2" t="inlineStr">
+      <c r="B141" s="11" t="inlineStr">
         <is>
           <t>長華*</t>
         </is>
@@ -22896,10 +22934,10 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="10" t="n">
         <v>8081</v>
       </c>
-      <c r="B142" s="2" t="inlineStr">
+      <c r="B142" s="11" t="inlineStr">
         <is>
           <t>致新</t>
         </is>
@@ -22979,10 +23017,10 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="10" t="n">
         <v>8086</v>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B143" s="11" t="inlineStr">
         <is>
           <t>宏捷科</t>
         </is>
@@ -23062,10 +23100,10 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="10" t="n">
         <v>8103</v>
       </c>
-      <c r="B144" s="2" t="inlineStr">
+      <c r="B144" s="11" t="inlineStr">
         <is>
           <t>瀚荃</t>
         </is>
@@ -23141,10 +23179,10 @@
       <c r="S144" s="2" t="n"/>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="10" t="n">
         <v>8109</v>
       </c>
-      <c r="B145" s="2" t="inlineStr">
+      <c r="B145" s="11" t="inlineStr">
         <is>
           <t>博大</t>
         </is>
@@ -23220,7 +23258,7 @@
       <c r="S145" s="2" t="n"/>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" s="10" t="n">
         <v>8121</v>
       </c>
       <c r="B146" s="2" t="inlineStr">
@@ -23303,10 +23341,10 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" s="10" t="n">
         <v>8150</v>
       </c>
-      <c r="B147" s="2" t="inlineStr">
+      <c r="B147" s="11" t="inlineStr">
         <is>
           <t>南茂</t>
         </is>
@@ -23386,10 +23424,10 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" s="10" t="n">
         <v>8213</v>
       </c>
-      <c r="B148" s="2" t="inlineStr">
+      <c r="B148" s="11" t="inlineStr">
         <is>
           <t>志超</t>
         </is>
@@ -23469,7 +23507,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" s="10" t="n">
         <v>8289</v>
       </c>
       <c r="B149" s="2" t="inlineStr">
@@ -23552,10 +23590,10 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" s="10" t="n">
         <v>8358</v>
       </c>
-      <c r="B150" s="2" t="inlineStr">
+      <c r="B150" s="11" t="inlineStr">
         <is>
           <t>金居</t>
         </is>
@@ -23635,10 +23673,10 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" s="10" t="n">
         <v>8367</v>
       </c>
-      <c r="B151" s="2" t="inlineStr">
+      <c r="B151" s="11" t="inlineStr">
         <is>
           <t>建新國際</t>
         </is>
@@ -23718,10 +23756,10 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" s="10" t="n">
         <v>8415</v>
       </c>
-      <c r="B152" s="2" t="inlineStr">
+      <c r="B152" s="11" t="inlineStr">
         <is>
           <t>大國鋼</t>
         </is>
@@ -23793,7 +23831,7 @@
       <c r="S152" s="2" t="n"/>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" s="10" t="n">
         <v>8420</v>
       </c>
       <c r="B153" s="2" t="inlineStr">
@@ -23868,7 +23906,7 @@
       <c r="S153" s="2" t="n"/>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" s="10" t="n">
         <v>9905</v>
       </c>
       <c r="B154" s="2" t="inlineStr">
@@ -23943,7 +23981,7 @@
       <c r="S154" s="2" t="n"/>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" s="10" t="n">
         <v>9924</v>
       </c>
       <c r="B155" s="2" t="inlineStr">
@@ -24018,7 +24056,7 @@
       <c r="S155" s="2" t="n"/>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
+      <c r="A156" s="10" t="n">
         <v>9941</v>
       </c>
       <c r="B156" s="2" t="inlineStr">
@@ -24101,7 +24139,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
+      <c r="A157" s="10" t="n">
         <v>9945</v>
       </c>
       <c r="B157" s="2" t="inlineStr">
@@ -24176,6 +24214,11 @@
       <c r="S157" s="2" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B500">
+    <sortState ref="B1:B500">
+      <sortCondition descending="0" ref="B1:B500"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -24215,7 +24258,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="9" t="inlineStr">
         <is>
           <t>代號</t>
         </is>
@@ -24312,10 +24355,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="10" t="n">
         <v>1773</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>勝一</t>
         </is>
@@ -24395,10 +24438,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="10" t="n">
         <v>2241</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="11" t="inlineStr">
         <is>
           <t>艾姆勒</t>
         </is>
@@ -24478,10 +24521,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="10" t="n">
         <v>2383</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="11" t="inlineStr">
         <is>
           <t>台光電</t>
         </is>
@@ -24561,10 +24604,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="10" t="n">
         <v>2637</v>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="11" t="inlineStr">
         <is>
           <t>慧洋-KY</t>
         </is>
@@ -24640,10 +24683,10 @@
       <c r="S5" s="2" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="10" t="n">
         <v>3023</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>信邦</t>
         </is>
@@ -24723,7 +24766,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="10" t="n">
         <v>3029</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -24806,10 +24849,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="10" t="n">
         <v>4961</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="11" t="inlineStr">
         <is>
           <t>天鈺</t>
         </is>
@@ -24889,10 +24932,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="10" t="n">
         <v>4974</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="11" t="inlineStr">
         <is>
           <t>亞泰</t>
         </is>
@@ -24972,10 +25015,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="10" t="n">
         <v>5299</v>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="11" t="inlineStr">
         <is>
           <t>杰力</t>
         </is>
@@ -25055,10 +25098,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="10" t="n">
         <v>6217</v>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="11" t="inlineStr">
         <is>
           <t>中探針</t>
         </is>
@@ -25138,10 +25181,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="10" t="n">
         <v>6237</v>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" s="11" t="inlineStr">
         <is>
           <t>驊訊</t>
         </is>
@@ -25221,10 +25264,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="10" t="n">
         <v>6274</v>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="11" t="inlineStr">
         <is>
           <t>台燿</t>
         </is>
@@ -25304,10 +25347,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="10" t="n">
         <v>6712</v>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="11" t="inlineStr">
         <is>
           <t>長聖</t>
         </is>
@@ -25387,10 +25430,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="10" t="n">
         <v>8086</v>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="11" t="inlineStr">
         <is>
           <t>宏捷科</t>
         </is>
@@ -25470,10 +25513,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="10" t="n">
         <v>8109</v>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B16" s="11" t="inlineStr">
         <is>
           <t>博大</t>
         </is>
@@ -25549,6 +25592,11 @@
       <c r="S16" s="2" t="n"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B500">
+    <sortState ref="B1:B500">
+      <sortCondition descending="0" ref="B1:B500"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -25563,8 +25611,8 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -25592,7 +25640,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>代號</t>
         </is>
@@ -25689,10 +25737,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="10" t="n">
         <v>2241</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="11" t="inlineStr">
         <is>
           <t>艾姆勒</t>
         </is>
@@ -25772,10 +25820,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="10" t="n">
         <v>3023</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="11" t="inlineStr">
         <is>
           <t>信邦</t>
         </is>
@@ -25855,7 +25903,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="10" t="n">
         <v>3511</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -25930,7 +25978,7 @@
       <c r="S4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="10" t="n">
         <v>3564</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -26013,10 +26061,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="10" t="n">
         <v>4961</v>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>天鈺</t>
         </is>
@@ -26096,7 +26144,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="10" t="n">
         <v>6491</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -26179,10 +26227,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="10" t="n">
         <v>6712</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="11" t="inlineStr">
         <is>
           <t>長聖</t>
         </is>
@@ -26262,10 +26310,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="10" t="n">
         <v>8086</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="11" t="inlineStr">
         <is>
           <t>宏捷科</t>
         </is>
@@ -26345,6 +26393,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B500">
+    <sortState ref="B1:B500">
+      <sortCondition descending="0" ref="B1:B500"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/stock/月營收創新高.xlsx
+++ b/stock/月營收創新高.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7月" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8月" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9月" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3月" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'6月'!$B$1:$B$500</definedName>
@@ -72,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -102,11 +103,17 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -142,6 +149,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -26400,4 +26410,219 @@
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
+    <col width="24" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="12" max="12"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
+    <col width="24" customWidth="1" min="14" max="14"/>
+    <col width="27" customWidth="1" min="15" max="15"/>
+    <col width="17" customWidth="1" min="16" max="16"/>
+    <col width="24" customWidth="1" min="17" max="17"/>
+    <col width="27" customWidth="1" min="18" max="18"/>
+    <col width="27" customWidth="1" min="19" max="19"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="13" t="inlineStr">
+        <is>
+          <t>代號</t>
+        </is>
+      </c>
+      <c r="B1" s="13" t="inlineStr">
+        <is>
+          <t>名稱</t>
+        </is>
+      </c>
+      <c r="C1" s="13" t="inlineStr">
+        <is>
+          <t>市場</t>
+        </is>
+      </c>
+      <c r="D1" s="13" t="inlineStr">
+        <is>
+          <t>股價日期</t>
+        </is>
+      </c>
+      <c r="E1" s="13" t="inlineStr">
+        <is>
+          <t>成交</t>
+        </is>
+      </c>
+      <c r="F1" s="13" t="inlineStr">
+        <is>
+          <t>漲跌價</t>
+        </is>
+      </c>
+      <c r="G1" s="13" t="inlineStr">
+        <is>
+          <t>漲跌幅</t>
+        </is>
+      </c>
+      <c r="H1" s="13" t="inlineStr">
+        <is>
+          <t>成交張數</t>
+        </is>
+      </c>
+      <c r="I1" s="13" t="inlineStr">
+        <is>
+          <t>營收月份</t>
+        </is>
+      </c>
+      <c r="J1" s="13" t="inlineStr">
+        <is>
+          <t>單月營收(億)</t>
+        </is>
+      </c>
+      <c r="K1" s="13" t="inlineStr">
+        <is>
+          <t>單月營收歷月排名</t>
+        </is>
+      </c>
+      <c r="L1" s="13" t="inlineStr">
+        <is>
+          <t>單月營收創紀錄月數</t>
+        </is>
+      </c>
+      <c r="M1" s="13" t="inlineStr">
+        <is>
+          <t>單月營收連增減月數</t>
+        </is>
+      </c>
+      <c r="N1" s="13" t="inlineStr">
+        <is>
+          <t>單月營收歷年排名</t>
+        </is>
+      </c>
+      <c r="O1" s="13" t="inlineStr">
+        <is>
+          <t>單月營收創紀錄年數</t>
+        </is>
+      </c>
+      <c r="P1" s="13" t="inlineStr">
+        <is>
+          <t>累月營收(億)</t>
+        </is>
+      </c>
+      <c r="Q1" s="13" t="inlineStr">
+        <is>
+          <t>累月營收歷年排名</t>
+        </is>
+      </c>
+      <c r="R1" s="13" t="inlineStr">
+        <is>
+          <t>累月營收創紀錄年數</t>
+        </is>
+      </c>
+      <c r="S1" s="13" t="inlineStr">
+        <is>
+          <t>累月營收連增減年數</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1516</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>川飛</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>市</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>04/01</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>4496</v>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>22M03</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>1高</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>298個月高</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr"/>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>1高</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>25年高</t>
+        </is>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>1高</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="inlineStr">
+        <is>
+          <t>25年高</t>
+        </is>
+      </c>
+      <c r="S2" s="2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>